--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
@@ -2504,7 +2504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It was the day her “noble life” came to an end.
+    <t xml:space="preserve">It was the day her 'noble life' came to an end.
 </t>
   </si>
   <si>
@@ -2576,7 +2576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] But, Talulah, how do you intend to certify... to at all assert, that Antonio “had never” seen in those records before?
+    <t xml:space="preserve">[name="Kashchey"] But, Talulah, how do you intend to certify... to at all assert, that Antonio 'had never' seen in those records before?
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] He cannot. He is not allowed to have “possibly done so.”
+    <t xml:space="preserve">[name="Kashchey"] He cannot. He is not allowed to have 'possibly done so.'
 </t>
   </si>
   <si>
@@ -2672,7 +2672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] An executioner, a lead gendarmerie, a noble officer, a conspirator, a killing machine of a caster?! When you say “an outstanding individual,” is that what you mean?!  
+    <t xml:space="preserve">[name="Talulah"] An executioner, a lead gendarmerie, a noble officer, a conspirator, a killing machine of a caster?! When you say 'an outstanding individual,' is that what you mean?!  
 </t>
   </si>
   <si>
@@ -2804,7 +2804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve taught you—”In this period of excessive calm, they cannot accept mutual, equal treatment.”
+    <t xml:space="preserve">[name="Kashchey"] I’ve taught you—'In this period of excessive calm, they cannot accept mutual, equal treatment.'
 </t>
   </si>
   <si>
@@ -3276,7 +3276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] No, no, of course I wouldn’t dream of doing so. But know well, no Kashchey would be willing to accept such a “present.”  To our diligent, prideful selves, it would be an insult! 
+    <t xml:space="preserve">[name="Kashchey"] No, no, of course I wouldn’t dream of doing so. But know well, no Kashchey would be willing to accept such a 'present.'  To our diligent, prideful selves, it would be an insult! 
 </t>
   </si>
   <si>
@@ -4000,11 +4000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="탈룰라"] 당신은 날 속였어, 웨이옌우가 아버지를 죽인 범인이라고 했지만 두 사람이 함께 당신을 용문에서 쫓아냈다는 이야기는 알려주지 않았지.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="탈룰라"] 아버지의 죽음에서 당신이 어떤 역할을 맡았는지 내게 말해주지 않았어. 웨이옌우가 아버지를 죽였으니 죽어 마땅하긴 하지만……
+    <t xml:space="preserve">[name="탈룰라"] 당신은 날 속였어. 웨이 옌우가 아버지를 죽인 범인이라고 했지만 두 사람이 함께 당신을 용문에서 쫓아냈다는 이야기는 알려주지 않았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아버지의 죽음에서 당신이 어떤 역할을 맡았는지 내게 말해주지 않았어. 웨이 옌우가 아버지를 죽였으니 죽어 마땅하긴 하지만……
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
@@ -2508,7 +2508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phidian Noble"] You’re back.
+    <t xml:space="preserve">[name="Phidian Noble"] You're back.
 </t>
   </si>
   <si>
@@ -2516,7 +2516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phidian Noble"] I thought you weren’t fond of that sword. Why carry it on your person?
+    <t xml:space="preserve">[name="Phidian Noble"] I thought you weren't fond of that sword. Why carry it on your person?
 </t>
   </si>
   <si>
@@ -2528,7 +2528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phidian Noble"] The smell of mud is stuck to your clothes. No smell of blood, though, nor anything singed. Your maidservant mentioned you were in a rush to meet me, so much so you did not bathe, nor change. Let me hazard a guess. You haven’t done anything.
+    <t xml:space="preserve">[name="Phidian Noble"] The smell of mud is stuck to your clothes. No smell of blood, though, nor anything singed. Your maidservant mentioned you were in a rush to meet me, so much so you did not bathe, nor change. Let me hazard a guess. You haven't done anything.
 </t>
   </si>
   <si>
@@ -2536,11 +2536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] You didn’t just want me to eliminate Major Antonio. You tried to trick me into killing a child.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Kashchey... a child. Antonio was taking his son on a trip, and you had me frame him so the Gendarmerie would beat him to death on his way to the next city over. His son would’ve had no chance of escaping.
+    <t xml:space="preserve">[name="Talulah"] You didn't just want me to eliminate Major Antonio. You tried to trick me into killing a child.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Kashchey... a child. Antonio was taking his son on a trip, and you had me frame him so the Gendarmerie would beat him to death on his way to the next city over. His son would've had no chance of escaping.
 </t>
   </si>
   <si>
@@ -2552,15 +2552,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve taught you this. In times when we have greater goals, we cannot avoid making sacrifices in our morality and resources.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] Given you’ve let Antonio go, the next time he surfaces may well be in the residence of some Victorian secret service official.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] Those horrid Felines would then surely make a fine point of our four neighboring cities’ shipping routes for the whole year...
+    <t xml:space="preserve">[name="Kashchey"] I've taught you this. In times when we have greater goals, we cannot avoid making sacrifices in our morality and resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] Given you've let Antonio go, the next time he surfaces may well be in the residence of some Victorian secret service official.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] Those horrid Felines would then surely make a fine point of our four neighboring cities' shipping routes for the whole year...
 </t>
   </si>
   <si>
@@ -2568,11 +2568,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve already destroyed the files.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] Wonderful! Very well done. You are quite capable, aren’t you?
+    <t xml:space="preserve">[name="Talulah"] I've already destroyed the files.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] Wonderful! Very well done. You are quite capable, aren't you?
 </t>
   </si>
   <si>
@@ -2584,7 +2584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] And how would you prove that he’d betray your dukedom? Betray Ursus? Why didn’t you go to question him, or seize him? Why go straight to eliminating him?
+    <t xml:space="preserve">[name="Talulah"] And how would you prove that he'd betray your dukedom? Betray Ursus? Why didn't you go to question him, or seize him? Why go straight to eliminating him?
 </t>
   </si>
   <si>
@@ -2592,7 +2592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] If he may have possibly done so. Then. As far as I’m concerned, as Ursus is concerned, as the laws and decrees are concerned, that is sufficient.
+    <t xml:space="preserve">[name="Kashchey"] If he may have possibly done so. Then. As far as I'm concerned, as Ursus is concerned, as the laws and decrees are concerned, that is sufficient.
 </t>
   </si>
   <si>
@@ -2604,11 +2604,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I knew it. I just knew... you wouldn’t let him go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve only been training you ceaselessly so that you may step by step become ever better. Now, you see that you have once again failed my expectations. You did not work as well as you did last time, Talulah.
+    <t xml:space="preserve">[name="Talulah"] I knew it. I just knew... you wouldn't let him go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] I've only been training you ceaselessly so that you may step by step become ever better. Now, you see that you have once again failed my expectations. You did not work as well as you did last time, Talulah.
 </t>
   </si>
   <si>
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Don’t ridicule me. Everything about you only stokes the anger in me to a roar.
+    <t xml:space="preserve">[name="Talulah"] Don't ridicule me. Everything about you only stokes the anger in me to a roar.
 </t>
   </si>
   <si>
@@ -2628,7 +2628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I’m very clear on your misgivings, and I understand how you think, too. That is why...
+    <t xml:space="preserve">[name="Kashchey"] I'm very clear on your misgivings, and I understand how you think, too. That is why...
 </t>
   </si>
   <si>
@@ -2636,7 +2636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] How about that, Talulah? That wasn’t something out of reach of your lone capability, is it?
+    <t xml:space="preserve">[name="Kashchey"] How about that, Talulah? That wasn't something out of reach of your lone capability, is it?
 </t>
   </si>
   <si>
@@ -2644,11 +2644,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] It makes no difference if he wasn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] When that boy comes of age, he’ll find you, and he’ll take revenge for his father.
+    <t xml:space="preserve">[name="Kashchey"] It makes no difference if he wasn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] When that boy comes of age, he'll find you, and he'll take revenge for his father.
 </t>
   </si>
   <si>
@@ -2660,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve given you this answer before. You must be sufficiently trained to the point you are capable of personally avenging him. Mm. And you currently... are not yet so.
+    <t xml:space="preserve">[name="Kashchey"] I've given you this answer before. You must be sufficiently trained to the point you are capable of personally avenging him. Mm. And you currently... are not yet so.
 </t>
   </si>
   <si>
@@ -2684,11 +2684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I never imagined you’d say something so sickening outright.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] But, well, *chuckle* I’m sorry, Duke.
+    <t xml:space="preserve">[name="Talulah"] I never imagined you'd say something so sickening outright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But, well, *chuckle* I'm sorry, Duke.
 </t>
   </si>
   <si>
@@ -2704,7 +2704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I can see you’ve gotten fired up. Tell me, then, Talulah, tell me something. What is it you’ve done that has you so pleased with yourself?
+    <t xml:space="preserve">[name="Kashchey"] I can see you've gotten fired up. Tell me, then, Talulah, tell me something. What is it you've done that has you so pleased with yourself?
 </t>
   </si>
   <si>
@@ -2728,11 +2728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’m an Infected now, Duke Kashchey. My life is wound short, and your schemes, your plans, your investments, all for naught. You have no way to use me ever again.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Everything I am was by your own design, wasn’t it? And now, no longer.
+    <t xml:space="preserve">[name="Talulah"] I'm an Infected now, Duke Kashchey. My life is wound short, and your schemes, your plans, your investments, all for naught. You have no way to use me ever again.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Everything I am was by your own design, wasn't it? And now, no longer.
 </t>
   </si>
   <si>
@@ -2744,7 +2744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Kashchey, I’ve already become what Ursus and the world at large most reviles. We most despicable Infected... across the cities, the tundras, the barrens, we most depraved, lowly Infected.
+    <t xml:space="preserve">[name="Talulah"] Kashchey, I've already become what Ursus and the world at large most reviles. We most despicable Infected... across the cities, the tundras, the barrens, we most depraved, lowly Infected.
 </t>
   </si>
   <si>
@@ -2752,7 +2752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Don’t you—!
+    <t xml:space="preserve">[name="Talulah"] Don't you—!
 </t>
   </si>
   <si>
@@ -2768,11 +2768,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] You never told me what role you played in my father’s death. Even if Wei Yenwu killed him, even if he is guilty, even if he deserves to die for it—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] You can’t escape blame either.
+    <t xml:space="preserve">[name="Talulah"] You never told me what role you played in my father's death. Even if Wei Yenwu killed him, even if he is guilty, even if he deserves to die for it—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You can't escape blame either.
 </t>
   </si>
   <si>
@@ -2784,7 +2784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] You’ve taken this city plundering its own residents and embellished it into a duty! To the point that they push around the Infected and the nomadic non-dwellers to bring themselves comfort!
+    <t xml:space="preserve">[name="Talulah"] You've taken this city plundering its own residents and embellished it into a duty! To the point that they push around the Infected and the nomadic non-dwellers to bring themselves comfort!
 </t>
   </si>
   <si>
@@ -2796,15 +2796,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I cannot endure this any longer. Even if I didn’t fault your hypocritical means and twisted tricks, your pathological lies and false benevolence already had me at wit’s end! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve taught you this before, Talulah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] I’ve taught you—'In this period of excessive calm, they cannot accept mutual, equal treatment.'
+    <t xml:space="preserve">[name="Talulah"] I cannot endure this any longer. Even if I didn't fault your hypocritical means and twisted tricks, your pathological lies and false benevolence already had me at wit's end! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] I've taught you this before, Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] I've taught you—'In this period of excessive calm, they cannot accept mutual, equal treatment.'
 </t>
   </si>
   <si>
@@ -2820,7 +2820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Not only that. They don’t allow for anyone braver than themselves, smarter than themselves. Kinder. More merciful... Not unless you are their duke, or their emperor.
+    <t xml:space="preserve">[name="Kashchey"] Not only that. They don't allow for anyone braver than themselves, smarter than themselves. Kinder. More merciful... Not unless you are their duke, or their emperor.
 </t>
   </si>
   <si>
@@ -2836,7 +2836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] You constantly made revisions to my policies, in ever greater attempts to protect them, so much that you didn’t even fear arousing the citizens’ wrath.
+    <t xml:space="preserve">[name="Kashchey"] You constantly made revisions to my policies, in ever greater attempts to protect them, so much that you didn't even fear arousing the citizens' wrath.
 </t>
   </si>
   <si>
@@ -2844,7 +2844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’m not sympathizing with them!
+    <t xml:space="preserve">[name="Talulah"] I'm not sympathizing with them!
 </t>
   </si>
   <si>
@@ -2856,7 +2856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I’m very gratified, Talulah, that you should truly care for them. You’ve come to resemble me more and more, my daughter.
+    <t xml:space="preserve">[name="Kashchey"] I'm very gratified, Talulah, that you should truly care for them. You've come to resemble me more and more, my daughter.
 </t>
   </si>
   <si>
@@ -2868,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] And what makes you think you know what I’m going to do? You don’t have the power...
+    <t xml:space="preserve">[name="Talulah"] And what makes you think you know what I'm going to do? You don't have the power...
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Talulah, in time, you will rule those destined to follow you. You have inherited the Black Snake’s knowledge, the Red Dragon’s blood flows through you, you walk the Bear’s land, and you thumb through the Hippogryph’s history.
+    <t xml:space="preserve">[name="Kashchey"] Talulah, in time, you will rule those destined to follow you. You have inherited the Black Snake's knowledge, the Red Dragon's blood flows through you, you walk the Bear's land, and you thumb through the Hippogryph's history.
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] But they crave your rule. For all their lives, they’ve been awaiting someone like you to rule over them. Ursus may well tremble for you, my daughter.
+    <t xml:space="preserve">[name="Kashchey"] But they crave your rule. For all their lives, they've been awaiting someone like you to rule over them. Ursus may well tremble for you, my daughter.
 </t>
   </si>
   <si>
@@ -2928,7 +2928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] He inherited the true Empire of Ursus, sustains Ursus’s flourishing lands, lets the people of Ursus live.
+    <t xml:space="preserve">[name="Kashchey"] He inherited the true Empire of Ursus, sustains Ursus's flourishing lands, lets the people of Ursus live.
 </t>
   </si>
   <si>
@@ -2944,7 +2944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] You dream of education and ideology to draw them in, enlighten them. But you don’t know that they bear not the slightest interest in what you have to say... Talulah, you deserve to know this.
+    <t xml:space="preserve">[name="Kashchey"] You dream of education and ideology to draw them in, enlighten them. But you don't know that they bear not the slightest interest in what you have to say... Talulah, you deserve to know this.
 </t>
   </si>
   <si>
@@ -2960,7 +2960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] No rule can endure, except where the voluntary will of Ursus’s people follows. They will never be ruled. They only press forth, forever.
+    <t xml:space="preserve">[name="Kashchey"] No rule can endure, except where the voluntary will of Ursus's people follows. They will never be ruled. They only press forth, forever.
 </t>
   </si>
   <si>
@@ -2968,7 +2968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] And how the hell would you know what they’re meant to be?  It was Ursus that ravaged them to this point!
+    <t xml:space="preserve">[name="Talulah"] And how the hell would you know what they're meant to be?  It was Ursus that ravaged them to this point!
 </t>
   </si>
   <si>
@@ -3008,7 +3008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] You have learned all of these methods. They are already your arms. All that’s left is to learn to make use of them... to get used to them.
+    <t xml:space="preserve">[name="Kashchey"] You have learned all of these methods. They are already your arms. All that's left is to learn to make use of them... to get used to them.
 </t>
   </si>
   <si>
@@ -3016,7 +3016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I can’t even tell what you’re spouting all this hell-ridden doctrine for, if anything.
+    <t xml:space="preserve">[name="Talulah"] I can't even tell what you're spouting all this hell-ridden doctrine for, if anything.
 </t>
   </si>
   <si>
@@ -3024,7 +3024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] How about this, my daughter. You don’t trust me.
+    <t xml:space="preserve">[name="Kashchey"] How about this, my daughter. You don't trust me.
 </t>
   </si>
   <si>
@@ -3056,7 +3056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I can wait. This country can wait. Be it three years, five years, a decade, a century, you will only arrive at the same answer. Though you will not live an Infected’s life for long, I know that day will come.
+    <t xml:space="preserve">[name="Kashchey"] I can wait. This country can wait. Be it three years, five years, a decade, a century, you will only arrive at the same answer. Though you will not live an Infected's life for long, I know that day will come.
 </t>
   </si>
   <si>
@@ -3068,7 +3068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Because all that you do, in other people’s eyes, still cannot make up for the pressure you bring about with your appearance, your status.
+    <t xml:space="preserve">[name="Kashchey"] Because all that you do, in other people's eyes, still cannot make up for the pressure you bring about with your appearance, your status.
 </t>
   </si>
   <si>
@@ -3108,7 +3108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] But should you recognize me, should you have understood me, should you realize just the sort of world you’re standing in...
+    <t xml:space="preserve">[name="Kashchey"] But should you recognize me, should you have understood me, should you realize just the sort of world you're standing in...
 </t>
   </si>
   <si>
@@ -3120,7 +3120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Ursus’s future will from then on be in your hands.
+    <t xml:space="preserve">[name="Kashchey"] Ursus's future will from then on be in your hands.
 </t>
   </si>
   <si>
@@ -3132,7 +3132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Conscious manipulation? Thought suggestion? Have you gone insane? It was you who taught me to withstand these Arts! It was you who taught me how to break free from the psyche’s Originium Arts!
+    <t xml:space="preserve">[name="Talulah"] Conscious manipulation? Thought suggestion? Have you gone insane? It was you who taught me to withstand these Arts! It was you who taught me how to break free from the psyche's Originium Arts!
 </t>
   </si>
   <si>
@@ -3168,7 +3168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] You needn’t spend too much of your life denying your own self.
+    <t xml:space="preserve">[name="Kashchey"] You needn't spend too much of your life denying your own self.
 </t>
   </si>
   <si>
@@ -3180,7 +3180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Talulah, Ursus’s destiny breathes as one with you.
+    <t xml:space="preserve">[name="Kashchey"] Talulah, Ursus's destiny breathes as one with you.
 </t>
   </si>
   <si>
@@ -3208,19 +3208,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] The moment you wake from your unrealistic fancy of human nature, you will be conscious. Of why we struggle so for this land’s most beautiful future.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] (Yen language) Just shut it! You’re... full of such utter shit! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] I never taught you such inflammatory Yen vernacular. But it may serve you to learn some. That’s the role you’ll be playing soon, after all. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Hah. Obviously. You didn’t let me talk like this in public, so I’d maintain my so-called image—
+    <t xml:space="preserve">[name="Kashchey"] The moment you wake from your unrealistic fancy of human nature, you will be conscious. Of why we struggle so for this land's most beautiful future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] (Yen language) Just shut it! You're... full of such utter shit! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] I never taught you such inflammatory Yen vernacular. But it may serve you to learn some. That's the role you'll be playing soon, after all. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Hah. Obviously. You didn't let me talk like this in public, so I'd maintain my so-called image—
 </t>
   </si>
   <si>
@@ -3228,11 +3228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] I calculate so as to make you think of others, but you denounce my proposals, profane my language. You’ve remembered all I’ve taught you, and now want to flee, Talulah...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"] But I’m not worried. Because, in the end, you will come back to this path.
+    <t xml:space="preserve">[name="Kashchey"] I calculate so as to make you think of others, but you denounce my proposals, profane my language. You've remembered all I've taught you, and now want to flee, Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"] But I'm not worried. Because, in the end, you will come back to this path.
 </t>
   </si>
   <si>
@@ -3252,7 +3252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ll have no part of it! None! 
+    <t xml:space="preserve">[name="Talulah"] I'll have no part of it! None! 
 </t>
   </si>
   <si>
@@ -3264,7 +3264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Go and establish your cause by your own hand. If you don’t wish to inherit my domain and political resources, my wealth and my power, then by all means.
+    <t xml:space="preserve">[name="Kashchey"] Go and establish your cause by your own hand. If you don't wish to inherit my domain and political resources, my wealth and my power, then by all means.
 </t>
   </si>
   <si>
@@ -3276,7 +3276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] No, no, of course I wouldn’t dream of doing so. But know well, no Kashchey would be willing to accept such a 'present.'  To our diligent, prideful selves, it would be an insult! 
+    <t xml:space="preserve">[name="Kashchey"] No, no, of course I wouldn't dream of doing so. But know well, no Kashchey would be willing to accept such a 'present.'  To our diligent, prideful selves, it would be an insult! 
 </t>
   </si>
   <si>
@@ -3292,7 +3292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] You break off from all you’ve known without a second thought, in exchange for a new, novel path...
+    <t xml:space="preserve">[name="Kashchey"] You break off from all you've known without a second thought, in exchange for a new, novel path...
 </t>
   </si>
   <si>
@@ -3304,7 +3304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I only came face-to-face with you today for one thing. I didn’t think I’d be forced to sit through your wicked, venomous sermon.
+    <t xml:space="preserve">[name="Talulah"] I only came face-to-face with you today for one thing. I didn't think I'd be forced to sit through your wicked, venomous sermon.
 </t>
   </si>
   <si>
@@ -3324,11 +3324,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’m not your daughter... I’m not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’m killing you to put a stop to your evil, once and for all.
+    <t xml:space="preserve">[name="Talulah"] I'm not your daughter... I'm not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm killing you to put a stop to your evil, once and for all.
 </t>
   </si>
   <si>
@@ -3336,7 +3336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve heard enough.
+    <t xml:space="preserve">[name="Talulah"] I've heard enough.
 </t>
   </si>
   <si>
@@ -3344,7 +3344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"] Ah. This sword. I never had the housekeeper confiscate it... I’m not fond of this sword. You use Arts much more than you use swords... but you were still allowed to carry it.
+    <t xml:space="preserve">[name="Kashchey"] Ah. This sword. I never had the housekeeper confiscate it... I'm not fond of this sword. You use Arts much more than you use swords... but you were still allowed to carry it.
 </t>
   </si>
   <si>
@@ -3364,7 +3364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I won’t be taken in, you rotting, putrid snake! You’re a villain beyond all else! Your life ends here!
+    <t xml:space="preserve">[name="Talulah"] I won't be taken in, you rotting, putrid snake! You're a villain beyond all else! Your life ends here!
 </t>
   </si>
   <si>
@@ -3380,11 +3380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I won’t hate you, Kashchey.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I may hate your endless, long-winded, rancid sophistry, but you yourself haven’t earned my hate.
+    <t xml:space="preserve">[name="Talulah"] I won't hate you, Kashchey.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I may hate your endless, long-winded, rancid sophistry, but you yourself haven't earned my hate.
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ll let you know the sheer absurdity of all you espoused. Not that you’d be able to know, now.
+    <t xml:space="preserve">[name="Talulah"] I'll let you know the sheer absurdity of all you espoused. Not that you'd be able to know, now.
 </t>
   </si>
   <si>
@@ -3420,7 +3420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Talulah, very carefully, pulls out the sword from the Duke’s chest.
+    <t xml:space="preserve">Talulah, very carefully, pulls out the sword from the Duke's chest.
 </t>
   </si>
   <si>
@@ -3444,19 +3444,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] If anything else happened, I probably wouldn’t have ever reached your village.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] The city... After I left, I heard Kashchey’s domain and wealth were quickly carved up amongst the Fourth Army.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And as far as I go, nobody cares. Who’d care about some... *chuckle* city girl? Not when she made herself scarce.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I did wander too far, though. I only came to my senses once I was already at the old couple’s place.
+    <t xml:space="preserve">[name="Talulah"] If anything else happened, I probably wouldn't have ever reached your village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The city... After I left, I heard Kashchey's domain and wealth were quickly carved up amongst the Fourth Army.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And as far as I go, nobody cares. Who'd care about some... *chuckle* city girl? Not when she made herself scarce.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I did wander too far, though. I only came to my senses once I was already at the old couple's place.
 </t>
   </si>
   <si>
@@ -3464,7 +3464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Ma’am said that the day you came, you were bloody, tip to tail. It was half a miracle she could still wash those clothes clean.
+    <t xml:space="preserve">[name="Alina"] Ma'am said that the day you came, you were bloody, tip to tail. It was half a miracle she could still wash those clothes clean.
 </t>
   </si>
   <si>
@@ -3472,35 +3472,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Wait, where’s this coming from?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Well... I’m just guessing, you must’ve thought of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] You wouldn’t do that. Your harvests were good, you’d just put out the evening dance’s bonfire, you had fenced burdenbeasts, and decorations hung outside on the walls...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Your lives might’ve been tough, but you still enjoyed how you lived.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] You wouldn’t have killed me. After that, not even the dance would feel right anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Who kills someone and stays calm as a lake? Only vicious monsters would. And they’re not common at all. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Don’t you think you’re too optimistic about people?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve seen too many bad things. In so many cases, they were done by those without another choice. 
+    <t xml:space="preserve">[name="Talulah"] Wait, where's this coming from?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Well... I'm just guessing, you must've thought of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You wouldn't do that. Your harvests were good, you'd just put out the evening dance's bonfire, you had fenced burdenbeasts, and decorations hung outside on the walls...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Your lives might've been tough, but you still enjoyed how you lived.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You wouldn't have killed me. After that, not even the dance would feel right anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Who kills someone and stays calm as a lake? Only vicious monsters would. And they're not common at all. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Don't you think you're too optimistic about people?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I've seen too many bad things. In so many cases, they were done by those without another choice. 
 </t>
   </si>
   <si>
@@ -3512,15 +3512,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] He said that all people were disgraceful, that you’d hate them and their evil in the end, all because you were so kind-hearted.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] ...What a horrible curse to want to make. It’s about as poisonous as words can get.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And that’s why I’m sure I’ll never hate anyone. Everything they do has a reason behind it.
+    <t xml:space="preserve">[name="Alina"] He said that all people were disgraceful, that you'd hate them and their evil in the end, all because you were so kind-hearted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] ...What a horrible curse to want to make. It's about as poisonous as words can get.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And that's why I'm sure I'll never hate anyone. Everything they do has a reason behind it.
 </t>
   </si>
   <si>
@@ -3528,23 +3528,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Maybe that wouldn’t be so bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] But what about after I’m gone? You’d have to figure things out on your own then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It’s bad luck to be so ominous, you know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] We’ll always have to confront it. Us little Infected sooner or later have to make our exits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Taking the little time we have left, and doing something that makes the fact we live worthwhile... there’s nothing bad about that.
+    <t xml:space="preserve">[name="Talulah"] Maybe that wouldn't be so bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] But what about after I'm gone? You'd have to figure things out on your own then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's bad luck to be so ominous, you know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] We'll always have to confront it. Us little Infected sooner or later have to make our exits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Taking the little time we have left, and doing something that makes the fact we live worthwhile... there's nothing bad about that.
 </t>
   </si>
   <si>
@@ -3560,15 +3560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] After that, it’s not just the Infected... not just the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Whether Ursus, Victoria, Leithania, regardless of country, regardless of race, regardless of your background... we’ll sear away all these things that divide us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] We should all have lives where we deserve to be equally loved. If someone stands in the way of that life, then we’ll take back what’s rightfully ours.
+    <t xml:space="preserve">[name="Talulah"] After that, it's not just the Infected... not just the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Whether Ursus, Victoria, Leithania, regardless of country, regardless of race, regardless of your background... we'll sear away all these things that divide us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We should all have lives where we deserve to be equally loved. If someone stands in the way of that life, then we'll take back what's rightfully ours.
 </t>
   </si>
   <si>
@@ -3576,23 +3576,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] We’d probably be wiped out to the last.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Wasn’t your first step to challenge Ursus, anyway?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] No matter what we do, it’s all a challenge to Ursus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] But when we give some, we gain some. Despite the fact the return isn’t certain to be for us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] I can’t call to mind things as wicked as you could... but my impression is that things in this world might not be as good as you often suppose.
+    <t xml:space="preserve">[name="Talulah"] We'd probably be wiped out to the last.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Wasn't your first step to challenge Ursus, anyway?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No matter what we do, it's all a challenge to Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But when we give some, we gain some. Despite the fact the return isn't certain to be for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I can't call to mind things as wicked as you could... but my impression is that things in this world might not be as good as you often suppose.
 </t>
   </si>
   <si>
@@ -3604,7 +3604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] ...Alina, no. That’s not right. What you’re asking for is... too...
+    <t xml:space="preserve">[name="Talulah"] ...Alina, no. That's not right. What you're asking for is... too...
 </t>
   </si>
   <si>
@@ -3612,15 +3612,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I won’t. I—I definitely won’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I believe all we’ve done will bear good fruit, and the reason is simple to match. Because they deserve that result. Because the creatures of this world deserve that fruit.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] ...Mm. Okay. Let’s go. 
+    <t xml:space="preserve">[name="Talulah"] I won't. I—I definitely won't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I believe all we've done will bear good fruit, and the reason is simple to match. Because they deserve that result. Because the creatures of this world deserve that fruit.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] ...Mm. Okay. Let's go. 
 </t>
   </si>
   <si>
@@ -3632,15 +3632,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] It’ll be difficult.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It’ll take more than difficulty to slow me down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yeti Squad Member"] FrostNova! Here’s the... person who helped us back there!
+    <t xml:space="preserve">[name="Alina"] It'll be difficult.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It'll take more than difficulty to slow me down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"] FrostNova! Here's the... person who helped us back there!
 </t>
   </si>
   <si>
@@ -3652,7 +3652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] You’re just like the rumors say. So cold, you Yetis. Cold enough to outstrip this awful winter weather.
+    <t xml:space="preserve">[name="Talulah"] You're just like the rumors say. So cold, you Yetis. Cold enough to outstrip this awful winter weather.
 </t>
   </si>
   <si>
@@ -3668,11 +3668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"] You need to explain, then. Why are you wearing an Ursus military officer’s uniform?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve come up with a lot of lies for that. Any preference?
+    <t xml:space="preserve">[name="FrostNova"] You need to explain, then. Why are you wearing an Ursus military officer's uniform?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I've come up with a lot of lies for that. Any preference?
 </t>
   </si>
   <si>
@@ -3680,11 +3680,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Wait!  You just don’t do humor, do you? Are you the Yeti Squad’s leader?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"] Why haven’t you fired?
+    <t xml:space="preserve">[name="Talulah"] Wait!  You just don't do humor, do you? Are you the Yeti Squad's leader?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"] Why haven't you fired?
 </t>
   </si>
   <si>
@@ -3692,7 +3692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] It’s true, Yetis. I came here to seek assistance, as well as to assist you.
+    <t xml:space="preserve">[name="Talulah"] It's true, Yetis. I came here to seek assistance, as well as to assist you.
 </t>
   </si>
   <si>
@@ -3700,7 +3700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Let’s shake on it, Captain Yeti! When conveying sincerity, I always hope to go the equal and dignified route.
+    <t xml:space="preserve">[name="Talulah"] Let's shake on it, Captain Yeti! When conveying sincerity, I always hope to go the equal and dignified route.
 </t>
   </si>
   <si>
@@ -3712,11 +3712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] ...Try it. I think I’ve pegged who you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Those Originium crystals they’re carrying have your Arts, don’t they?
+    <t xml:space="preserve">[name="Talulah"] ...Try it. I think I've pegged who you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Those Originium crystals they're carrying have your Arts, don't they?
 </t>
   </si>
   <si>
@@ -3724,15 +3724,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] If I’m able to melt your ice, would you be willing to hear me out for a bit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"] —Dream on. You couldn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Let’s try it.
+    <t xml:space="preserve">[name="Talulah"] If I'm able to melt your ice, would you be willing to hear me out for a bit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"] —Dream on. You couldn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Let's try it.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_end.xlsx
@@ -4800,7 +4800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="탈룰라"] 우르수스, 빅토리아, 라이타니아…… 국적, 인종, 신분 등 우리를 가로막고 있는 모든 것을 무너뜨려야 해.
+    <t xml:space="preserve">[name="탈룰라"] 우르수스, 빅토리아, 라이타니엔…… 국적, 인종, 신분 등 우리를 가로막고 있는 모든 것을 무너뜨려야 해.
 </t>
   </si>
   <si>
